--- a/Mapa Interativo/dadostest.xlsx
+++ b/Mapa Interativo/dadostest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Gomes\Documents\Programação\Meus-Projetos\Mapa Interativo\Long e Alt - Cidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Gomes\Documents\Programação\Meus-Projetos\Mapa Interativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC76FBD-0998-4A18-ADD3-EA24CC4F4A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180EAA5B-B539-4554-B02F-22F0AE848329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3894FEEB-40B9-4C6B-95D1-EC5A08ED3878}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Cidades" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cidades!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cidades!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -669,9 +669,6 @@
     <t>-15.841993</t>
   </si>
   <si>
-    <t>-32.596936</t>
-  </si>
-  <si>
     <t>-22.600068</t>
   </si>
   <si>
@@ -684,9 +681,6 @@
     <t>-9.871502</t>
   </si>
   <si>
-    <t>8.792839</t>
-  </si>
-  <si>
     <t>-22.780727</t>
   </si>
   <si>
@@ -798,9 +792,6 @@
     <t>-48.028121</t>
   </si>
   <si>
-    <t>-71.432196</t>
-  </si>
-  <si>
     <t>-47.875089</t>
   </si>
   <si>
@@ -813,9 +804,6 @@
     <t>-56.083988</t>
   </si>
   <si>
-    <t>-82.869573</t>
-  </si>
-  <si>
     <t>-51.230772</t>
   </si>
   <si>
@@ -999,9 +987,6 @@
     <t>-16.372241</t>
   </si>
   <si>
-    <t>-12.057775</t>
-  </si>
-  <si>
     <t>-6.772653</t>
   </si>
   <si>
@@ -1011,9 +996,6 @@
     <t>-25.540148</t>
   </si>
   <si>
-    <t>-8.890589</t>
-  </si>
-  <si>
     <t>-16.680882</t>
   </si>
   <si>
@@ -1167,9 +1149,6 @@
     <t>-39.575704</t>
   </si>
   <si>
-    <t>-77.030904</t>
-  </si>
-  <si>
     <t>-43.007062</t>
   </si>
   <si>
@@ -1179,9 +1158,6 @@
     <t>-54.585814</t>
   </si>
   <si>
-    <t>-36.493090</t>
-  </si>
-  <si>
     <t>-49.253269</t>
   </si>
   <si>
@@ -1825,6 +1801,30 @@
   </si>
   <si>
     <t>LONG</t>
+  </si>
+  <si>
+    <t>-9.729293</t>
+  </si>
+  <si>
+    <t>-48.1247924</t>
+  </si>
+  <si>
+    <t>-14.2400686</t>
+  </si>
+  <si>
+    <t>-51.2574627</t>
+  </si>
+  <si>
+    <t>-43.5860076</t>
+  </si>
+  <si>
+    <t>-13.2818509</t>
+  </si>
+  <si>
+    <t>-9.7954628</t>
+  </si>
+  <si>
+    <t>-36.1225152</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +1904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1913,10 +1913,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2231,10 +2232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3D4AD9-8424-437C-83C5-D4E6006B5385}">
-  <dimension ref="A1:L192"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,8 +2243,8 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2257,11 +2258,11 @@
       <c r="C1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>598</v>
+      <c r="D1" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>210</v>
@@ -2278,14 +2279,14 @@
         <f>A2&amp;"-"&amp;B2</f>
         <v>Águas Claras-DF</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>255</v>
+      <c r="D2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,17 +2297,17 @@
         <v>5</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">A3&amp;"-"&amp;B3</f>
+        <f>A3&amp;"-"&amp;B3</f>
         <v>Águas Claras Norte -DF</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>256</v>
+      <c r="D3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,14 +2318,14 @@
         <v>19</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>A4&amp;"-"&amp;B4</f>
         <v>Águas de São Pedro -SP</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>257</v>
+      <c r="D4" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2338,14 +2339,14 @@
         <v>201</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>A5&amp;"-"&amp;B5</f>
         <v>Águia Branca-ES</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>258</v>
+      <c r="D5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2359,14 +2360,14 @@
         <v>13</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f>A6&amp;"-"&amp;B6</f>
         <v>Aliança-PE</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>259</v>
+      <c r="D6" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2380,17 +2381,17 @@
         <v>8</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f>A7&amp;"-"&amp;B7</f>
         <v>Alta Floresta-MT</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>260</v>
+      <c r="D7" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2401,14 +2402,14 @@
         <v>11</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
+        <f>A8&amp;"-"&amp;B8</f>
         <v>Altamira-PA</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>261</v>
+      <c r="D8" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2422,17 +2423,17 @@
         <v>12</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f>A9&amp;"-"&amp;B9</f>
         <v>Alvorada do Sul -PR</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>262</v>
+      <c r="D9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2443,14 +2444,14 @@
         <v>19</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f>A10&amp;"-"&amp;B10</f>
         <v>Americana-SP</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>263</v>
+      <c r="D10" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2464,17 +2465,17 @@
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f>A11&amp;"-"&amp;B11</f>
         <v>Ananindeua-PA</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>264</v>
+      <c r="D11" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,17 +2486,17 @@
         <v>6</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f>A12&amp;"-"&amp;B12</f>
         <v>Anápolis-GO</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>265</v>
+      <c r="D12" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,14 +2507,14 @@
         <v>6</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
+        <f>A13&amp;"-"&amp;B13</f>
         <v>Aparecida de Goiânia-GO</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>266</v>
+      <c r="D13" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2527,17 +2528,17 @@
         <v>20</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f>A14&amp;"-"&amp;B14</f>
         <v>aracaju -SE</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>267</v>
+      <c r="D14" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,17 +2549,17 @@
         <v>10</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f>A15&amp;"-"&amp;B15</f>
         <v>Arantina-MG</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>268</v>
+      <c r="D15" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2569,14 +2570,14 @@
         <v>19</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f>A16&amp;"-"&amp;B16</f>
         <v>Araraquara -SP</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>269</v>
+      <c r="D16" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>475</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2590,14 +2591,14 @@
         <v>7</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f>A17&amp;"-"&amp;B17</f>
         <v>ARARI-MA</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>270</v>
+      <c r="D17" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2611,14 +2612,14 @@
         <v>13</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f>A18&amp;"-"&amp;B18</f>
         <v>Araripina-PE</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>271</v>
+      <c r="D18" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2632,14 +2633,14 @@
         <v>11</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f>A19&amp;"-"&amp;B19</f>
         <v>Aveiro-PA</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>272</v>
+      <c r="D19" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2653,14 +2654,14 @@
         <v>18</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f>A20&amp;"-"&amp;B20</f>
         <v>Balneário Camboriú-SC</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>273</v>
+      <c r="D20" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>469</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2674,14 +2675,14 @@
         <v>19</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
+        <f>A21&amp;"-"&amp;B21</f>
         <v>Barra Bonita-SP</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>274</v>
+      <c r="D21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2695,14 +2696,14 @@
         <v>4</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
+        <f>A22&amp;"-"&amp;B22</f>
         <v>BARREIRAS-BA</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>275</v>
+      <c r="D22" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2716,17 +2717,17 @@
         <v>4</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
+        <f>A23&amp;"-"&amp;B23</f>
         <v>Barrocas-BA</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>276</v>
+      <c r="D23" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,14 +2738,14 @@
         <v>19</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f>A24&amp;"-"&amp;B24</f>
         <v>Barueri -SP</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>277</v>
+      <c r="D24" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>477</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2758,17 +2759,17 @@
         <v>19</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f>A25&amp;"-"&amp;B25</f>
         <v>Bauru-SP</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>278</v>
+      <c r="D25" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>478</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2779,17 +2780,17 @@
         <v>19</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f>A26&amp;"-"&amp;B26</f>
         <v>Bebedouro-SP</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>279</v>
+      <c r="D26" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,14 +2801,14 @@
         <v>11</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f>A27&amp;"-"&amp;B27</f>
         <v>Belém-PA</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>280</v>
+      <c r="D27" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2821,17 +2822,17 @@
         <v>10</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f>A28&amp;"-"&amp;B28</f>
         <v>Belo Horizonte-MG</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>281</v>
+      <c r="D28" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,17 +2843,17 @@
         <v>7</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f>A29&amp;"-"&amp;B29</f>
         <v>Bequimão-MA</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>282</v>
+      <c r="D29" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,14 +2864,14 @@
         <v>4</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f>A30&amp;"-"&amp;B30</f>
         <v>Bom Jesus da Lapa-BA</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>283</v>
+      <c r="D30" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2884,17 +2885,17 @@
         <v>19</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f>A31&amp;"-"&amp;B31</f>
         <v>Bragança Paulista-SP</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>284</v>
+      <c r="D31" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2905,17 +2906,17 @@
         <v>5</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f>A32&amp;"-"&amp;B32</f>
         <v>Brasilia-DF</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>285</v>
+      <c r="D32" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2926,14 +2927,14 @@
         <v>15</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f>A33&amp;"-"&amp;B33</f>
         <v>Cabo Frio-RJ</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>286</v>
+      <c r="D33" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2947,14 +2948,14 @@
         <v>19</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
+        <f>A34&amp;"-"&amp;B34</f>
         <v>Cachoeira Paulista-SP</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>287</v>
+      <c r="D34" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2968,17 +2969,17 @@
         <v>13</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
+        <f>A35&amp;"-"&amp;B35</f>
         <v>CALUMBI-PE</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>288</v>
+      <c r="D35" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>388</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,14 +2990,14 @@
         <v>10</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
+        <f>A36&amp;"-"&amp;B36</f>
         <v>Cambuí-MG</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>289</v>
+      <c r="D36" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3010,14 +3011,14 @@
         <v>202</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f>A37&amp;"-"&amp;B37</f>
         <v>Campina Grande-PB</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>290</v>
+      <c r="D37" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3031,17 +3032,17 @@
         <v>19</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f>A38&amp;"-"&amp;B38</f>
         <v>Campinas-SP</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>291</v>
+      <c r="D38" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="F38">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,14 +3053,14 @@
         <v>9</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f>A39&amp;"-"&amp;B39</f>
         <v>Campo Grande -MS</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>292</v>
+      <c r="D39" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3073,17 +3074,17 @@
         <v>8</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f>A40&amp;"-"&amp;B40</f>
         <v>Campo Novo do Parecis-MT</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>293</v>
+      <c r="D40" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,17 +3095,17 @@
         <v>19</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f>A41&amp;"-"&amp;B41</f>
         <v>Caraguatatuba-SP</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>294</v>
+      <c r="D41" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,14 +3116,14 @@
         <v>19</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f>A42&amp;"-"&amp;B42</f>
         <v>Cardoso-SP</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>295</v>
+      <c r="D42" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>484</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3136,14 +3137,14 @@
         <v>13</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f>A43&amp;"-"&amp;B43</f>
         <v>Caruaru-PE</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>296</v>
+      <c r="D43" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3157,14 +3158,14 @@
         <v>19</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f>A44&amp;"-"&amp;B44</f>
         <v>Casa Branca-SP</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>297</v>
+      <c r="D44" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>485</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3172,20 +3173,20 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f>A45&amp;"-"&amp;B45</f>
         <v>Casa Nova-BA</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>298</v>
+      <c r="D45" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3193,20 +3194,20 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>Catolé do Rocha-PB</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>301</v>
+        <f>A46&amp;"-"&amp;B46</f>
+        <v>Casa Nova-BA</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3214,62 +3215,62 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>colina-SP</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>302</v>
+        <f>A47&amp;"-"&amp;B47</f>
+        <v>Catolé do Rocha-PB</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>Conchal-SP</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>303</v>
+        <f>A48&amp;"-"&amp;B48</f>
+        <v>colina-SP</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>486</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>Coqueiral-MG</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>304</v>
+        <f>A49&amp;"-"&amp;B49</f>
+        <v>Conchal-SP</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -3277,20 +3278,20 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>Corrente-PI</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>366</v>
+        <f>A50&amp;"-"&amp;B50</f>
+        <v>Coqueiral-MG</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3298,41 +3299,41 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>Cosmópolis-SP</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>367</v>
+        <f>A51&amp;"-"&amp;B51</f>
+        <v>Corrente-PI</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>Cotia-SP</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>368</v>
+        <f>A52&amp;"-"&amp;B52</f>
+        <v>Cosmópolis-SP</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -3340,41 +3341,41 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>Crissiumal-RS</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>369</v>
+        <f>A53&amp;"-"&amp;B53</f>
+        <v>Cotia-SP</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>Cubatão-SP</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>370</v>
+        <f>A54&amp;"-"&amp;B54</f>
+        <v>Crissiumal-RS</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -3382,62 +3383,62 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuiabá-MT</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>371</v>
+        <f>A55&amp;"-"&amp;B55</f>
+        <v>Cubatão-SP</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>Curitiba-PR</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>372</v>
+        <f>A56&amp;"-"&amp;B56</f>
+        <v>Cuiabá-MT</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>300</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>Casa Nova-BA</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>298</v>
+        <f>A57&amp;"-"&amp;B57</f>
+        <v>Curitiba-PR</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -3451,14 +3452,14 @@
         <v>19</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f>A58&amp;"-"&amp;B58</f>
         <v>Dourado-SP</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>373</v>
+      <c r="D58" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3472,14 +3473,14 @@
         <v>9</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f>A59&amp;"-"&amp;B59</f>
         <v>Dourados-MS</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>374</v>
+      <c r="D59" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -3493,14 +3494,14 @@
         <v>15</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f>A60&amp;"-"&amp;B60</f>
         <v>Duque de Caxias-RJ</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>375</v>
+      <c r="D60" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -3514,17 +3515,17 @@
         <v>19</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f>A61&amp;"-"&amp;B61</f>
         <v>embu das artes-SP</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>376</v>
+      <c r="D61" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,17 +3536,17 @@
         <v>4</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f>A62&amp;"-"&amp;B62</f>
         <v>Euclides da Cunha-BA</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>377</v>
+      <c r="D62" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3556,17 +3557,17 @@
         <v>4</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f>A63&amp;"-"&amp;B63</f>
         <v>Eunápolis-BA</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>378</v>
+      <c r="D63" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3577,14 +3578,14 @@
         <v>13</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f>A64&amp;"-"&amp;B64</f>
         <v>Flores-PE</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>379</v>
+      <c r="D64" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>390</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -3598,14 +3599,14 @@
         <v>14</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f>A65&amp;"-"&amp;B65</f>
         <v>Floriano-PI</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>380</v>
+      <c r="D65" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>399</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3619,17 +3620,17 @@
         <v>200</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
+        <f>A66&amp;"-"&amp;B66</f>
         <v>Fortaleza-CE</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>381</v>
+      <c r="D66" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3640,17 +3641,17 @@
         <v>12</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="1">A67&amp;"-"&amp;B67</f>
+        <f>A67&amp;"-"&amp;B67</f>
         <v>Foz do Iguaçu-PR</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>382</v>
+      <c r="D67" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3661,14 +3662,14 @@
         <v>13</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="1"/>
+        <f>A68&amp;"-"&amp;B68</f>
         <v>Garanhuns-PE</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>383</v>
+      <c r="D68" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3682,17 +3683,17 @@
         <v>6</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="1"/>
+        <f>A69&amp;"-"&amp;B69</f>
         <v>Goiânia-GO</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>384</v>
+      <c r="D69" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3703,14 +3704,14 @@
         <v>4</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="1"/>
+        <f>A70&amp;"-"&amp;B70</f>
         <v>Guanambi -BA</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>385</v>
+      <c r="D70" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3718,23 +3719,23 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="1"/>
+        <f>A71&amp;"-"&amp;B71</f>
         <v>GUARÁ-DF</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>386</v>
+      <c r="D71" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3745,14 +3746,14 @@
         <v>19</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="1"/>
+        <f>A72&amp;"-"&amp;B72</f>
         <v>Guaratinguetá-SP</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>387</v>
+      <c r="D72" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>504</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -3766,17 +3767,17 @@
         <v>19</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="1"/>
+        <f>A73&amp;"-"&amp;B73</f>
         <v>Guarulhos-SP</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>388</v>
+      <c r="D73" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>505</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3787,14 +3788,14 @@
         <v>19</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="1"/>
+        <f>A74&amp;"-"&amp;B74</f>
         <v>Hortolândia-SP</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>389</v>
+      <c r="D74" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3808,14 +3809,14 @@
         <v>4</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="1"/>
+        <f>A75&amp;"-"&amp;B75</f>
         <v>Ibitiara-BA</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>390</v>
+      <c r="D75" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3829,17 +3830,17 @@
         <v>17</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="1"/>
+        <f>A76&amp;"-"&amp;B76</f>
         <v>IJUÍ-RS</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>391</v>
+      <c r="D76" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>437</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3850,14 +3851,14 @@
         <v>19</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="1"/>
+        <f>A77&amp;"-"&amp;B77</f>
         <v>Indaiatuba-SP</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>392</v>
+      <c r="D77" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3871,17 +3872,17 @@
         <v>10</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="1"/>
+        <f>A78&amp;"-"&amp;B78</f>
         <v>Ipatinga-MG</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>393</v>
+      <c r="D78" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,14 +3893,14 @@
         <v>15</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="1"/>
+        <f>A79&amp;"-"&amp;B79</f>
         <v>Itaguaí-RJ</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>394</v>
+      <c r="D79" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3913,14 +3914,14 @@
         <v>19</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="1"/>
+        <f>A80&amp;"-"&amp;B80</f>
         <v>Itaim Paulista-SP</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>395</v>
+      <c r="D80" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3934,17 +3935,17 @@
         <v>10</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="1"/>
+        <f>A81&amp;"-"&amp;B81</f>
         <v>Itajubá-MG</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>396</v>
+      <c r="D81" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,17 +3956,17 @@
         <v>19</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="1"/>
+        <f>A82&amp;"-"&amp;B82</f>
         <v>Itapecerica Da Serra-SP</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>397</v>
+      <c r="D82" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3976,17 +3977,17 @@
         <v>19</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="1"/>
+        <f>A83&amp;"-"&amp;B83</f>
         <v>Itapetininga-SP</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>398</v>
+      <c r="D83" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>530</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3997,14 +3998,14 @@
         <v>19</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="1"/>
+        <f>A84&amp;"-"&amp;B84</f>
         <v>Itapevi-SP</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>399</v>
+      <c r="D84" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -4018,17 +4019,17 @@
         <v>19</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="1"/>
+        <f>A85&amp;"-"&amp;B85</f>
         <v>Itapira-SP</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>400</v>
+      <c r="D85" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4039,17 +4040,17 @@
         <v>19</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="1"/>
+        <f>A86&amp;"-"&amp;B86</f>
         <v>Itaquaquecetuba-SP</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>401</v>
+      <c r="D86" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4060,14 +4061,14 @@
         <v>19</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="1"/>
+        <f>A87&amp;"-"&amp;B87</f>
         <v>Itatiba-SP</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>402</v>
+      <c r="D87" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -4081,17 +4082,17 @@
         <v>19</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="1"/>
+        <f>A88&amp;"-"&amp;B88</f>
         <v>Itu-SP</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>403</v>
+      <c r="D88" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4102,14 +4103,14 @@
         <v>10</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="1"/>
+        <f>A89&amp;"-"&amp;B89</f>
         <v>Iturama - MG-MG</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>404</v>
+      <c r="D89" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -4123,17 +4124,17 @@
         <v>13</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="1"/>
+        <f>A90&amp;"-"&amp;B90</f>
         <v>Jaboatão dos Guararapes-PE</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>405</v>
+      <c r="D90" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,14 +4145,14 @@
         <v>10</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="1"/>
+        <f>A91&amp;"-"&amp;B91</f>
         <v>Jaboticatubas-MG</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>406</v>
+      <c r="D91" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -4165,17 +4166,17 @@
         <v>18</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="1"/>
+        <f>A92&amp;"-"&amp;B92</f>
         <v>Jaraguá do Sul-SC</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>407</v>
+      <c r="D92" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,14 +4187,14 @@
         <v>16</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="1"/>
+        <f>A93&amp;"-"&amp;B93</f>
         <v>Jardim do Seridó-RN</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>408</v>
+      <c r="D93" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>434</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -4207,17 +4208,17 @@
         <v>4</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="1"/>
+        <f>A94&amp;"-"&amp;B94</f>
         <v>Jequié-BA</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>409</v>
+      <c r="D94" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4228,14 +4229,14 @@
         <v>202</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="1"/>
+        <f>A95&amp;"-"&amp;B95</f>
         <v>João Pessoa-PB</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>410</v>
+      <c r="D95" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -4249,17 +4250,17 @@
         <v>18</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="1"/>
+        <f>A96&amp;"-"&amp;B96</f>
         <v>Joinville-SC</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>411</v>
+      <c r="D96" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4270,14 +4271,14 @@
         <v>10</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="1"/>
+        <f>A97&amp;"-"&amp;B97</f>
         <v>Juiz De Fora-MG</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>412</v>
+      <c r="D97" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4291,17 +4292,17 @@
         <v>19</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="1"/>
+        <f>A98&amp;"-"&amp;B98</f>
         <v>Jundiai-SP</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>413</v>
+      <c r="D98" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,14 +4313,14 @@
         <v>4</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="1"/>
+        <f>A99&amp;"-"&amp;B99</f>
         <v>Lauro  de Freitas-BA</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>414</v>
+      <c r="D99" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -4333,17 +4334,17 @@
         <v>19</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="1"/>
+        <f>A100&amp;"-"&amp;B100</f>
         <v>Limeira-SP</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>415</v>
+      <c r="D100" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="F100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4354,17 +4355,17 @@
         <v>13</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="1"/>
+        <f>A101&amp;"-"&amp;B101</f>
         <v>Limoeiro-PE</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>416</v>
+      <c r="D101" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,17 +4376,17 @@
         <v>15</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="1"/>
+        <f>A102&amp;"-"&amp;B102</f>
         <v>Macaé-RJ</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>417</v>
+      <c r="D102" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4396,17 +4397,17 @@
         <v>2</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="1"/>
+        <f>A103&amp;"-"&amp;B103</f>
         <v>Maceió-AL</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>418</v>
+      <c r="D103" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4417,17 +4418,17 @@
         <v>13</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="1"/>
+        <f>A104&amp;"-"&amp;B104</f>
         <v>Machados-PE</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>419</v>
+      <c r="D104" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4438,14 +4439,14 @@
         <v>3</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="1"/>
+        <f>A105&amp;"-"&amp;B105</f>
         <v>manaus-AM</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>420</v>
+      <c r="D105" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4459,14 +4460,14 @@
         <v>10</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="1"/>
+        <f>A106&amp;"-"&amp;B106</f>
         <v>MANHUAÇU-MG</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>421</v>
+      <c r="D106" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4480,14 +4481,14 @@
         <v>4</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="1"/>
+        <f>A107&amp;"-"&amp;B107</f>
         <v>Maracás-BA</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>438</v>
+      <c r="D107" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -4501,14 +4502,14 @@
         <v>12</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="1"/>
+        <f>A108&amp;"-"&amp;B108</f>
         <v>Maringa-PR</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>439</v>
+      <c r="D108" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4522,17 +4523,17 @@
         <v>200</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="1"/>
+        <f>A109&amp;"-"&amp;B109</f>
         <v>MASSAPÊ-CE</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>440</v>
+      <c r="D109" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4543,17 +4544,17 @@
         <v>19</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="1"/>
+        <f>A110&amp;"-"&amp;B110</f>
         <v>Mauá-SP</v>
       </c>
-      <c r="D110" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>441</v>
+      <c r="D110" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,14 +4565,14 @@
         <v>19</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="1"/>
+        <f>A111&amp;"-"&amp;B111</f>
         <v>Mogi das Cruzes-SP</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>442</v>
+      <c r="D111" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -4585,17 +4586,17 @@
         <v>19</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="1"/>
+        <f>A112&amp;"-"&amp;B112</f>
         <v>Mogi Guaçu-SP</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>443</v>
+      <c r="D112" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>540</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,17 +4607,17 @@
         <v>19</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="1"/>
+        <f>A113&amp;"-"&amp;B113</f>
         <v>Mogi Mirim-SP</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>444</v>
+      <c r="D113" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -4627,17 +4628,17 @@
         <v>11</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="1"/>
+        <f>A114&amp;"-"&amp;B114</f>
         <v>Monte Alegre-PA</v>
       </c>
-      <c r="D114" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>445</v>
+      <c r="D114" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -4648,17 +4649,17 @@
         <v>16</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="1"/>
+        <f>A115&amp;"-"&amp;B115</f>
         <v>Natal-RN</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>446</v>
+      <c r="D115" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>435</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -4669,14 +4670,14 @@
         <v>15</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="1"/>
+        <f>A116&amp;"-"&amp;B116</f>
         <v>Niterói  -RJ</v>
       </c>
-      <c r="D116" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>447</v>
+      <c r="D116" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4690,17 +4691,17 @@
         <v>9</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="1"/>
+        <f>A117&amp;"-"&amp;B117</f>
         <v>Nova Andradina -MS</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>448</v>
+      <c r="D117" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4711,14 +4712,14 @@
         <v>8</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="1"/>
+        <f>A118&amp;"-"&amp;B118</f>
         <v>Nova Mutum-MT</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>449</v>
+      <c r="D118" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4732,14 +4733,14 @@
         <v>8</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="1"/>
+        <f>A119&amp;"-"&amp;B119</f>
         <v>Nova Olímpia-MT</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>450</v>
+      <c r="D119" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -4753,17 +4754,17 @@
         <v>17</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="1"/>
+        <f>A120&amp;"-"&amp;B120</f>
         <v>Nova Prata-RS</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>451</v>
+      <c r="D120" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>438</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4774,14 +4775,14 @@
         <v>17</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="1"/>
+        <f>A121&amp;"-"&amp;B121</f>
         <v>Novo Hamburgo-RS</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>452</v>
+      <c r="D121" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -4795,17 +4796,17 @@
         <v>14</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="1"/>
+        <f>A122&amp;"-"&amp;B122</f>
         <v>Oeiras PIAUI-PI</v>
       </c>
-      <c r="D122" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>453</v>
+      <c r="D122" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4816,17 +4817,17 @@
         <v>19</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="1"/>
+        <f>A123&amp;"-"&amp;B123</f>
         <v>Osasco-SP</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>476</v>
+      <c r="D123" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4837,14 +4838,14 @@
         <v>200</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="1"/>
+        <f>A124&amp;"-"&amp;B124</f>
         <v>Pacatuba-CE</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>477</v>
+      <c r="D124" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -4858,17 +4859,17 @@
         <v>21</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="1"/>
+        <f>A125&amp;"-"&amp;B125</f>
         <v>Palmas TOCANTINS-TO</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>478</v>
+      <c r="D125" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>588</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,17 +4880,17 @@
         <v>12</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="1"/>
+        <f>A126&amp;"-"&amp;B126</f>
         <v>Palotina-PR</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>479</v>
+      <c r="D126" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4900,17 +4901,17 @@
         <v>10</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="1"/>
+        <f>A127&amp;"-"&amp;B127</f>
         <v>Paracatu-MG</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>480</v>
+      <c r="D127" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>360</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4921,20 +4922,20 @@
         <v>11</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="1"/>
+        <f>A128&amp;"-"&amp;B128</f>
         <v>parauapebas -PA</v>
       </c>
-      <c r="D128" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>481</v>
+      <c r="D128" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="F128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>38</v>
       </c>
@@ -4942,20 +4943,20 @@
         <v>4</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="1"/>
+        <f>A129&amp;"-"&amp;B129</f>
         <v>Paripiranga-BA</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>482</v>
+      <c r="D129" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>111</v>
       </c>
@@ -4963,62 +4964,62 @@
         <v>14</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="1"/>
+        <f>A130&amp;"-"&amp;B130</f>
         <v>Parnaíba-PI</v>
       </c>
-      <c r="D130" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>483</v>
+      <c r="D130" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>401</v>
       </c>
       <c r="F130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C192" si="2">A131&amp;"-"&amp;B131</f>
+        <f>A131&amp;"-"&amp;B131</f>
         <v>Passos -MG</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>484</v>
+      <c r="D131" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="F131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B132" t="s">
         <v>202</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="2"/>
+        <f>A132&amp;"-"&amp;B132</f>
         <v>Patos-PB</v>
       </c>
-      <c r="D132" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>485</v>
+      <c r="D132" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="F132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>170</v>
       </c>
@@ -5026,20 +5027,20 @@
         <v>19</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="2"/>
+        <f>A133&amp;"-"&amp;B133</f>
         <v>Paulinia-SP</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>486</v>
+      <c r="D133" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="F133">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>138</v>
       </c>
@@ -5047,20 +5048,20 @@
         <v>19</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="2"/>
+        <f>A134&amp;"-"&amp;B134</f>
         <v>Pedreira-SP</v>
       </c>
-      <c r="D134" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>487</v>
+      <c r="D134" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="F134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>124</v>
       </c>
@@ -5068,20 +5069,20 @@
         <v>17</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="2"/>
+        <f>A135&amp;"-"&amp;B135</f>
         <v>Pelotas-RS</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>488</v>
+      <c r="D135" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>440</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>105</v>
       </c>
@@ -5089,20 +5090,20 @@
         <v>13</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="2"/>
+        <f>A136&amp;"-"&amp;B136</f>
         <v>petrolina-PE</v>
       </c>
-      <c r="D136" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>489</v>
+      <c r="D136" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="F136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>118</v>
       </c>
@@ -5110,20 +5111,20 @@
         <v>15</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="2"/>
+        <f>A137&amp;"-"&amp;B137</f>
         <v>Petrópolis-RJ</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>490</v>
+      <c r="D137" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>431</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>140</v>
       </c>
@@ -5131,20 +5132,20 @@
         <v>19</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="2"/>
+        <f>A138&amp;"-"&amp;B138</f>
         <v>Piracicaba-SP</v>
       </c>
-      <c r="D138" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>491</v>
+      <c r="D138" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="F138">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>44</v>
       </c>
@@ -5152,20 +5153,20 @@
         <v>5</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="2"/>
+        <f>A139&amp;"-"&amp;B139</f>
         <v>Planaltina-DF-DF</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>492</v>
+      <c r="D139" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>130</v>
       </c>
@@ -5173,20 +5174,20 @@
         <v>17</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="2"/>
+        <f>A140&amp;"-"&amp;B140</f>
         <v>Porto Alegre-RS</v>
       </c>
-      <c r="D140" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>493</v>
+      <c r="D140" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>132</v>
       </c>
@@ -5194,20 +5195,20 @@
         <v>17</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="2"/>
+        <f>A141&amp;"-"&amp;B141</f>
         <v>Porto Xavier -RS</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="E141" s="5" t="s">
-        <v>494</v>
+      <c r="D141" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>442</v>
       </c>
       <c r="F141">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>80</v>
       </c>
@@ -5215,24 +5216,20 @@
         <v>10</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="2"/>
+        <f>A142&amp;"-"&amp;B142</f>
         <v>Pouso Alegre-MG</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>495</v>
+      <c r="D142" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="L142">
-        <f>SUM(F2:F192)</f>
-        <v>448</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>164</v>
       </c>
@@ -5240,20 +5237,20 @@
         <v>19</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="2"/>
+        <f>A143&amp;"-"&amp;B143</f>
         <v>Praia Grande-SP</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>507</v>
+      <c r="D143" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>546</v>
       </c>
       <c r="F143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
@@ -5261,17 +5258,17 @@
         <v>3</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="2"/>
+        <f>A144&amp;"-"&amp;B144</f>
         <v>Presidente Figueiredo-AM</v>
       </c>
-      <c r="D144" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>508</v>
+      <c r="D144" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5282,17 +5279,17 @@
         <v>13</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="2"/>
+        <f>A145&amp;"-"&amp;B145</f>
         <v>Recife-PE</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>509</v>
+      <c r="D145" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5303,17 +5300,17 @@
         <v>10</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="2"/>
+        <f>A146&amp;"-"&amp;B146</f>
         <v>RIACHO DOS MACHADOS-MG</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>510</v>
+      <c r="D146" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5324,17 +5321,17 @@
         <v>19</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="2"/>
+        <f>A147&amp;"-"&amp;B147</f>
         <v>Ribeirão Preto-SP</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>511</v>
+      <c r="D147" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>547</v>
       </c>
       <c r="F147">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,17 +5342,17 @@
         <v>12</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="2"/>
+        <f>A148&amp;"-"&amp;B148</f>
         <v>Rio Azul-PR</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>512</v>
+      <c r="D148" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5366,17 +5363,17 @@
         <v>15</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="2"/>
+        <f>A149&amp;"-"&amp;B149</f>
         <v>Rio de Janeiro-RJ</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>513</v>
+      <c r="D149" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="F149">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,17 +5384,17 @@
         <v>17</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="2"/>
+        <f>A150&amp;"-"&amp;B150</f>
         <v>Rio Grande-RS</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>514</v>
+      <c r="D150" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5408,14 +5405,14 @@
         <v>6</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="2"/>
+        <f>A151&amp;"-"&amp;B151</f>
         <v>Rio Verde-GO</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>515</v>
+      <c r="D151" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -5429,14 +5426,14 @@
         <v>19</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="2"/>
+        <f>A152&amp;"-"&amp;B152</f>
         <v>Salto-SP</v>
       </c>
-      <c r="D152" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>516</v>
+      <c r="D152" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>548</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -5450,35 +5447,35 @@
         <v>4</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="2"/>
+        <f>A153&amp;"-"&amp;B153</f>
         <v>Salvador-BA</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>517</v>
+      <c r="D153" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="F153">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B154" t="s">
         <v>19</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="2"/>
+        <f>A154&amp;"-"&amp;B154</f>
         <v>Santa Barbara d'Oeste-SP</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>538</v>
+      <c r="D154" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>569</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -5492,14 +5489,14 @@
         <v>19</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" si="2"/>
+        <f>A155&amp;"-"&amp;B155</f>
         <v>Santa Isabel-SP</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>539</v>
+      <c r="D155" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>570</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -5513,14 +5510,14 @@
         <v>11</v>
       </c>
       <c r="C156" t="str">
-        <f t="shared" si="2"/>
+        <f>A156&amp;"-"&amp;B156</f>
         <v>Santarém-PA</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>540</v>
+      <c r="D156" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -5534,17 +5531,17 @@
         <v>19</v>
       </c>
       <c r="C157" t="str">
-        <f t="shared" si="2"/>
+        <f>A157&amp;"-"&amp;B157</f>
         <v>Santo andre-SP</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>541</v>
+      <c r="D157" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="F157">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5555,14 +5552,14 @@
         <v>19</v>
       </c>
       <c r="C158" t="str">
-        <f t="shared" si="2"/>
+        <f>A158&amp;"-"&amp;B158</f>
         <v>Santos-SP</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>542</v>
+      <c r="D158" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>572</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -5576,17 +5573,17 @@
         <v>19</v>
       </c>
       <c r="C159" t="str">
-        <f t="shared" si="2"/>
+        <f>A159&amp;"-"&amp;B159</f>
         <v>São Bernardo do Campo-SP</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>543</v>
+      <c r="D159" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>573</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,17 +5594,17 @@
         <v>19</v>
       </c>
       <c r="C160" t="str">
-        <f t="shared" si="2"/>
+        <f>A160&amp;"-"&amp;B160</f>
         <v>São Caetano do Sul-SP</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>544</v>
+      <c r="D160" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5618,17 +5615,17 @@
         <v>19</v>
       </c>
       <c r="C161" t="str">
-        <f t="shared" si="2"/>
+        <f>A161&amp;"-"&amp;B161</f>
         <v>São Carlos-SP</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>545</v>
+      <c r="D161" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>575</v>
       </c>
       <c r="F161">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5639,14 +5636,14 @@
         <v>19</v>
       </c>
       <c r="C162" t="str">
-        <f t="shared" si="2"/>
+        <f>A162&amp;"-"&amp;B162</f>
         <v>São joão da boa vista-SP</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>546</v>
+      <c r="D162" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>576</v>
       </c>
       <c r="F162">
         <v>3</v>
@@ -5660,14 +5657,14 @@
         <v>19</v>
       </c>
       <c r="C163" t="str">
-        <f t="shared" si="2"/>
+        <f>A163&amp;"-"&amp;B163</f>
         <v>São José do Rio Pardo-SP</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>547</v>
+      <c r="D163" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>577</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5681,17 +5678,17 @@
         <v>19</v>
       </c>
       <c r="C164" t="str">
-        <f t="shared" si="2"/>
+        <f>A164&amp;"-"&amp;B164</f>
         <v>sao jose do rio preto-SP</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>548</v>
+      <c r="D164" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>578</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,17 +5699,17 @@
         <v>19</v>
       </c>
       <c r="C165" t="str">
-        <f t="shared" si="2"/>
+        <f>A165&amp;"-"&amp;B165</f>
         <v>São José dos Campos-SP</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>549</v>
+      <c r="D165" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>579</v>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -5723,14 +5720,14 @@
         <v>17</v>
       </c>
       <c r="C166" t="str">
-        <f t="shared" si="2"/>
+        <f>A166&amp;"-"&amp;B166</f>
         <v>São Leopoldo-RS</v>
       </c>
-      <c r="D166" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>550</v>
+      <c r="D166" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -5744,14 +5741,14 @@
         <v>7</v>
       </c>
       <c r="C167" t="str">
-        <f t="shared" si="2"/>
+        <f>A167&amp;"-"&amp;B167</f>
         <v>São Luis-MA</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>551</v>
+      <c r="D167" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -5765,14 +5762,14 @@
         <v>2</v>
       </c>
       <c r="C168" t="str">
-        <f t="shared" si="2"/>
+        <f>A168&amp;"-"&amp;B168</f>
         <v>São Miguel dos Campos-AL</v>
       </c>
-      <c r="D168" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>552</v>
+      <c r="D168" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -5786,17 +5783,17 @@
         <v>19</v>
       </c>
       <c r="C169" t="str">
-        <f t="shared" si="2"/>
+        <f>A169&amp;"-"&amp;B169</f>
         <v>Sao Paulo-SP</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>553</v>
+      <c r="D169" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>580</v>
       </c>
       <c r="F169">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,17 +5804,17 @@
         <v>12</v>
       </c>
       <c r="C170" t="str">
-        <f t="shared" si="2"/>
+        <f>A170&amp;"-"&amp;B170</f>
         <v>Saudade do iguaçu-PR</v>
       </c>
-      <c r="D170" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>554</v>
+      <c r="D170" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5828,14 +5825,14 @@
         <v>19</v>
       </c>
       <c r="C171" t="str">
-        <f t="shared" si="2"/>
+        <f>A171&amp;"-"&amp;B171</f>
         <v>Sertãozinho-SP</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>555</v>
+      <c r="D171" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>581</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -5849,14 +5846,14 @@
         <v>10</v>
       </c>
       <c r="C172" t="str">
-        <f t="shared" si="2"/>
+        <f>A172&amp;"-"&amp;B172</f>
         <v>Sete Lagoas-MG</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>556</v>
+      <c r="D172" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>364</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -5870,17 +5867,17 @@
         <v>10</v>
       </c>
       <c r="C173" t="str">
-        <f t="shared" si="2"/>
+        <f>A173&amp;"-"&amp;B173</f>
         <v>Simonésia-MG</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>577</v>
+      <c r="D173" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5891,17 +5888,17 @@
         <v>8</v>
       </c>
       <c r="C174" t="str">
-        <f t="shared" si="2"/>
+        <f>A174&amp;"-"&amp;B174</f>
         <v>Sinop MATO GROSSO-MT</v>
       </c>
-      <c r="D174" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>578</v>
+      <c r="D174" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5912,17 +5909,17 @@
         <v>13</v>
       </c>
       <c r="C175" t="str">
-        <f t="shared" si="2"/>
+        <f>A175&amp;"-"&amp;B175</f>
         <v>Sirinhaem-PE</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>579</v>
+      <c r="D175" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,17 +5930,17 @@
         <v>19</v>
       </c>
       <c r="C176" t="str">
-        <f t="shared" si="2"/>
+        <f>A176&amp;"-"&amp;B176</f>
         <v>Socorro - SP-SP</v>
       </c>
-      <c r="D176" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>580</v>
+      <c r="D176" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>582</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,17 +5951,17 @@
         <v>19</v>
       </c>
       <c r="C177" t="str">
-        <f t="shared" si="2"/>
+        <f>A177&amp;"-"&amp;B177</f>
         <v>Sumaré-SP</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>581</v>
+      <c r="D177" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>583</v>
       </c>
       <c r="F177">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,17 +5972,17 @@
         <v>19</v>
       </c>
       <c r="C178" t="str">
-        <f t="shared" si="2"/>
+        <f>A178&amp;"-"&amp;B178</f>
         <v>Taboão da Serra-SP</v>
       </c>
-      <c r="D178" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>582</v>
+      <c r="D178" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="F178">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5996,17 +5993,17 @@
         <v>4</v>
       </c>
       <c r="C179" t="str">
-        <f t="shared" si="2"/>
+        <f>A179&amp;"-"&amp;B179</f>
         <v>Taperoá-BA</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>583</v>
+      <c r="D179" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6017,17 +6014,17 @@
         <v>19</v>
       </c>
       <c r="C180" t="str">
-        <f t="shared" si="2"/>
+        <f>A180&amp;"-"&amp;B180</f>
         <v>Taubaté-SP</v>
       </c>
-      <c r="D180" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>584</v>
+      <c r="D180" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="F180">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6038,14 +6035,14 @@
         <v>4</v>
       </c>
       <c r="C181" t="str">
-        <f t="shared" si="2"/>
+        <f>A181&amp;"-"&amp;B181</f>
         <v>Teixeira de Freitas-BA</v>
       </c>
-      <c r="D181" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E181" s="5" t="s">
-        <v>585</v>
+      <c r="D181" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -6059,17 +6056,17 @@
         <v>14</v>
       </c>
       <c r="C182" t="str">
-        <f t="shared" si="2"/>
+        <f>A182&amp;"-"&amp;B182</f>
         <v>Teresina-PI</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>586</v>
+      <c r="D182" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6080,17 +6077,17 @@
         <v>17</v>
       </c>
       <c r="C183" t="str">
-        <f t="shared" si="2"/>
+        <f>A183&amp;"-"&amp;B183</f>
         <v>Torres RIO GRANDE DO SUL-RS</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="E183" s="5" t="s">
-        <v>587</v>
+      <c r="D183" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6101,17 +6098,17 @@
         <v>10</v>
       </c>
       <c r="C184" t="str">
-        <f t="shared" si="2"/>
+        <f>A184&amp;"-"&amp;B184</f>
         <v>Uberaba-MG</v>
       </c>
-      <c r="D184" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="E184" s="5" t="s">
-        <v>588</v>
+      <c r="D184" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,14 +6119,14 @@
         <v>10</v>
       </c>
       <c r="C185" t="str">
-        <f t="shared" si="2"/>
+        <f>A185&amp;"-"&amp;B185</f>
         <v>Uberlândia-MG</v>
       </c>
-      <c r="D185" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>589</v>
+      <c r="D185" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -6143,17 +6140,17 @@
         <v>19</v>
       </c>
       <c r="C186" t="str">
-        <f t="shared" si="2"/>
+        <f>A186&amp;"-"&amp;B186</f>
         <v>Valinhos-SP</v>
       </c>
-      <c r="D186" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>590</v>
+      <c r="D186" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>586</v>
       </c>
       <c r="F186">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,14 +6161,14 @@
         <v>10</v>
       </c>
       <c r="C187" t="str">
-        <f t="shared" si="2"/>
+        <f>A187&amp;"-"&amp;B187</f>
         <v>Varginha-MG</v>
       </c>
-      <c r="D187" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>591</v>
+      <c r="D187" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -6185,14 +6182,14 @@
         <v>17</v>
       </c>
       <c r="C188" t="str">
-        <f t="shared" si="2"/>
+        <f>A188&amp;"-"&amp;B188</f>
         <v>Viamão-RS</v>
       </c>
-      <c r="D188" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>592</v>
+      <c r="D188" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>468</v>
       </c>
       <c r="F188">
         <v>2</v>
@@ -6206,17 +6203,17 @@
         <v>201</v>
       </c>
       <c r="C189" t="str">
-        <f t="shared" si="2"/>
+        <f>A189&amp;"-"&amp;B189</f>
         <v>Vila Velha-ES</v>
       </c>
-      <c r="D189" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="E189" s="5" t="s">
-        <v>593</v>
+      <c r="D189" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,17 +6224,17 @@
         <v>19</v>
       </c>
       <c r="C190" t="str">
-        <f t="shared" si="2"/>
+        <f>A190&amp;"-"&amp;B190</f>
         <v>Vinhedo-SP</v>
       </c>
-      <c r="D190" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>594</v>
+      <c r="D190" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,17 +6245,17 @@
         <v>201</v>
       </c>
       <c r="C191" t="str">
-        <f t="shared" si="2"/>
+        <f>A191&amp;"-"&amp;B191</f>
         <v>Vitória - ESPIRITO SANTO-ES</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>595</v>
+      <c r="D191" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6269,22 +6266,22 @@
         <v>15</v>
       </c>
       <c r="C192" t="str">
-        <f t="shared" si="2"/>
+        <f>A192&amp;"-"&amp;B192</f>
         <v>Volta Redonda-RJ</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="E192" s="5" t="s">
-        <v>596</v>
+      <c r="D192" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>433</v>
       </c>
       <c r="F192">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B192" xr:uid="{F9E54B10-1CDF-40F0-98FB-295CDB43C214}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B192">
+  <autoFilter ref="A1:F1" xr:uid="{9DCF51F1-80EC-469F-A090-5B486F48E614}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F192">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
